--- a/data/trans_orig/P25C$parches_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25C$parches_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{509687D2-85FD-4490-8245-342C88ADFC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6FFD2C-729B-4CBF-8B46-5226E48617B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0A732D2-9EBE-4302-AEC7-716D746B7C89}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C14FAED9-E29E-4B27-AD6B-16EAF75E9F8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="284">
-  <si>
-    <t>Población según método de dejar de fumar en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="313">
+  <si>
+    <t>Población según método de dejar de fumar (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -59,7 +59,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Ayuda del Centro de Salud (parches, pastillas)</t>
@@ -110,22 +110,22 @@
     <t>Por mi cuenta, con chicles, parches u otros productos farmacéuticos</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>Otra forma</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -137,754 +137,841 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1299,8 +1386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F548B9-E22E-4564-9D21-EB23E96D4E00}">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15573F4-EDC0-41F2-9167-7D12E417E4B8}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1818,13 +1905,13 @@
         <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>9</v>
@@ -1836,18 +1923,18 @@
         <v>31</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
@@ -1859,25 +1946,25 @@
         <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1886,31 +1973,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1925,25 +2012,25 @@
         <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="I20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1958,25 +2045,25 @@
         <v>10</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1985,31 +2072,31 @@
         <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2018,31 +2105,31 @@
         <v>23</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2051,66 +2138,66 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2125,25 +2212,25 @@
         <v>10</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2158,25 +2245,25 @@
         <v>10</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2185,7 +2272,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>9</v>
@@ -2194,22 +2281,22 @@
         <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2218,31 +2305,31 @@
         <v>17</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2251,31 +2338,31 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2284,66 +2371,66 @@
         <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2352,31 +2439,31 @@
         <v>14</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="J33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2409,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2418,31 +2505,31 @@
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2451,31 +2538,31 @@
         <v>17</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2484,31 +2571,31 @@
         <v>23</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2517,66 +2604,66 @@
         <v>28</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2585,31 +2672,31 @@
         <v>14</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2618,13 +2705,13 @@
         <v>15</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>9</v>
@@ -2633,16 +2720,16 @@
         <v>10</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2651,31 +2738,31 @@
         <v>16</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2684,31 +2771,31 @@
         <v>17</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2717,10 +2804,10 @@
         <v>23</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>222</v>
@@ -2729,19 +2816,19 @@
         <v>223</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="I44" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="J44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2750,66 +2837,66 @@
         <v>28</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="J45" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="K45" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2818,31 +2905,31 @@
         <v>14</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2851,31 +2938,31 @@
         <v>15</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="F48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="J48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2884,31 +2971,31 @@
         <v>16</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F49" s="7" t="s">
+      <c r="I49" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2917,31 +3004,31 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="J50" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="K50" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2950,31 +3037,31 @@
         <v>23</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2983,45 +3070,279 @@
         <v>28</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="I53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="E54" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K52" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="I54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>283</v>
       </c>
+      <c r="K54" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>312</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
